--- a/BowenWeekReport20170508.xlsx
+++ b/BowenWeekReport20170508.xlsx
@@ -398,6 +398,20 @@
         <v>Completion</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <v>Form Test</v>
+      </c>
+      <c r="B2" t="str">
+        <v>2 hours</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Bowen</v>
+      </c>
+      <c r="D2" t="str">
+        <v>80%</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/BowenWeekReport20170508.xlsx
+++ b/BowenWeekReport20170508.xlsx
@@ -402,14 +402,14 @@
       <c r="A2" t="str">
         <v>Form Test</v>
       </c>
-      <c r="B2" t="str">
-        <v>2 hours</v>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2" t="str">
-        <v>Bowen</v>
-      </c>
-      <c r="D2" t="str">
-        <v>80%</v>
+        <v>Bo</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170508.xlsx
+++ b/BowenWeekReport20170508.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Form Test</v>
+        <v>aa</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>Bo</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170508.xlsx
+++ b/BowenWeekReport20170508.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>aa</v>
+        <v>Charset</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>1</v>
+        <v>Bo</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170508.xlsx
+++ b/BowenWeekReport20170508.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Charset</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>ForEach</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1 hours</v>
       </c>
       <c r="C2" t="str">
-        <v>Bo</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
+        <v>Bowen</v>
+      </c>
+      <c r="D2" t="str">
+        <v>10%</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170508.xlsx
+++ b/BowenWeekReport20170508.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>ForEach</v>
+        <v>JS deep clone</v>
       </c>
       <c r="B2" t="str">
         <v>1 hours</v>
       </c>
       <c r="C2" t="str">
-        <v>Bowen</v>
+        <v>Bo</v>
       </c>
       <c r="D2" t="str">
-        <v>10%</v>
+        <v>80%</v>
       </c>
     </row>
   </sheetData>
